--- a/biology/Médecine/Thiénodiazépine/Thiénodiazépine.xlsx
+++ b/biology/Médecine/Thiénodiazépine/Thiénodiazépine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nodiaz%C3%A9pine</t>
+          <t>Thiénodiazépine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une thiénodiazépine est un composé chimique hétérocyclique contenant un noyau diazépine lié à un noyau thiophène.
 La thiénodiazépine constitue la base des substances suivantes :
-bentazépam[1] ;
-brotizolam, utilisé chez les bovins pour « stimulation de l'appétit lors d'anorexies primaires ou secondaires[2]» ;
-clotiazépam[3] ;
-étizolam[4] ;
+bentazépam ;
+brotizolam, utilisé chez les bovins pour « stimulation de l'appétit lors d'anorexies primaires ou secondaires» ;
+clotiazépam ;
+étizolam ;
 thiénalprazolam.
-Dans la mesure où les thiénodiazépines se lient aux récepteurs des benzodiazépines, elles ont les mêmes effets que ces dernières[5].
-En France, la seule thiénodiazépine commercialisée en tant que médicament est le clotiazépam[6],[7].
+Dans la mesure où les thiénodiazépines se lient aux récepteurs des benzodiazépines, elles ont les mêmes effets que ces dernières.
+En France, la seule thiénodiazépine commercialisée en tant que médicament est le clotiazépam,.
 </t>
         </is>
       </c>
